--- a/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
+++ b/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>Serie</t>
   </si>
@@ -467,6 +467,72 @@
   </si>
   <si>
     <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -824,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2469,6 +2535,248 @@
         <v>0</v>
       </c>
     </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>4355400</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151">
+        <v>5035100</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152">
+        <v>2531800</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153">
+        <v>2812800</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154">
+        <v>3090700</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155">
+        <v>3099000</v>
+      </c>
+      <c r="C155">
+        <v>7868</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156">
+        <v>3633300</v>
+      </c>
+      <c r="C156">
+        <v>8209</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>4341800</v>
+      </c>
+      <c r="C157">
+        <v>79031</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158">
+        <v>4319500</v>
+      </c>
+      <c r="C158">
+        <v>5843</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159">
+        <v>4203600</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160">
+        <v>5039200</v>
+      </c>
+      <c r="C160">
+        <v>83300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>4596800</v>
+      </c>
+      <c r="C161">
+        <v>83131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162">
+        <v>5184300</v>
+      </c>
+      <c r="C162">
+        <v>102708</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163">
+        <v>5109500</v>
+      </c>
+      <c r="C163">
+        <v>58048</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164">
+        <v>4411000</v>
+      </c>
+      <c r="C164">
+        <v>105984</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165">
+        <v>5348400</v>
+      </c>
+      <c r="C165">
+        <v>96854</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>5836300</v>
+      </c>
+      <c r="C166">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167">
+        <v>4909900</v>
+      </c>
+      <c r="C167">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168">
+        <v>5089700</v>
+      </c>
+      <c r="C168">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169">
+        <v>6502400</v>
+      </c>
+      <c r="C169">
+        <v>22191</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170">
+        <v>4180542</v>
+      </c>
+      <c r="C170">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171">
+        <v>3849963</v>
+      </c>
+      <c r="C171">
+        <v>53932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
+++ b/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Serie</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2777,6 +2780,17 @@
         <v>53932</v>
       </c>
     </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172">
+        <v>7308450</v>
+      </c>
+      <c r="C172">
+        <v>37324</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
+++ b/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Serie</t>
   </si>
@@ -536,6 +536,24 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
   </si>
 </sst>
 </file>
@@ -893,7 +911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2791,6 +2809,72 @@
         <v>37324</v>
       </c>
     </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173">
+        <v>6831588</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174">
+        <v>6130159</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175">
+        <v>3537896</v>
+      </c>
+      <c r="C175">
+        <v>82620</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176">
+        <v>2215600</v>
+      </c>
+      <c r="C176">
+        <v>112514</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177">
+        <v>3117100</v>
+      </c>
+      <c r="C177">
+        <v>282475</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178">
+        <v>3138200</v>
+      </c>
+      <c r="C178">
+        <v>257312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
+++ b/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -554,6 +554,39 @@
   </si>
   <si>
     <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -911,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2875,6 +2908,127 @@
         <v>257312</v>
       </c>
     </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179">
+        <v>3036502</v>
+      </c>
+      <c r="C179">
+        <v>278768</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180">
+        <v>2187300</v>
+      </c>
+      <c r="C180">
+        <v>297752</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181">
+        <v>3979500</v>
+      </c>
+      <c r="C181">
+        <v>225559</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182">
+        <v>5470600</v>
+      </c>
+      <c r="C182">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183">
+        <v>4445000</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184">
+        <v>4335700</v>
+      </c>
+      <c r="C184">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185">
+        <v>5276400</v>
+      </c>
+      <c r="C185">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186">
+        <v>4947550</v>
+      </c>
+      <c r="C186">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187">
+        <v>5552750</v>
+      </c>
+      <c r="C187">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188">
+        <v>5517750</v>
+      </c>
+      <c r="C188">
+        <v>147361</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189">
+        <v>5902400</v>
+      </c>
+      <c r="C189">
+        <v>149733</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
+++ b/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>Serie</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3029,6 +3032,17 @@
         <v>149733</v>
       </c>
     </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190">
+        <v>5080550</v>
+      </c>
+      <c r="C190">
+        <v>34348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
+++ b/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Serie</t>
   </si>
@@ -590,6 +590,15 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
   </si>
 </sst>
 </file>
@@ -947,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3043,6 +3052,39 @@
         <v>34348</v>
       </c>
     </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191">
+        <v>5726450</v>
+      </c>
+      <c r="C191">
+        <v>81401</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192">
+        <v>6195650</v>
+      </c>
+      <c r="C192">
+        <v>8883</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193">
+        <v>6223850</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
+++ b/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Serie</t>
   </si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -956,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3085,6 +3088,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194">
+        <v>6605450</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
+++ b/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Serie</t>
   </si>
@@ -602,6 +602,18 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
   </si>
 </sst>
 </file>
@@ -959,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3099,6 +3111,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195">
+        <v>4196150</v>
+      </c>
+      <c r="C195">
+        <v>439805</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196">
+        <v>844150</v>
+      </c>
+      <c r="C196">
+        <v>1173581</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197">
+        <v>956470</v>
+      </c>
+      <c r="C197">
+        <v>1411844</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198">
+        <v>5144270</v>
+      </c>
+      <c r="C198">
+        <v>175237</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
+++ b/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>Serie</t>
   </si>
@@ -614,6 +614,33 @@
   </si>
   <si>
     <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
   </si>
 </sst>
 </file>
@@ -971,7 +998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3155,6 +3182,105 @@
         <v>175237</v>
       </c>
     </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199">
+        <v>6373770</v>
+      </c>
+      <c r="C199">
+        <v>70424</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200">
+        <v>5784470</v>
+      </c>
+      <c r="C200">
+        <v>274046</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201">
+        <v>6289670</v>
+      </c>
+      <c r="C201">
+        <v>116500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202">
+        <v>5206370</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203">
+        <v>5101578</v>
+      </c>
+      <c r="C203">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204">
+        <v>4730000</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205">
+        <v>3574454</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206">
+        <v>3402168</v>
+      </c>
+      <c r="C206">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207">
+        <v>3919100</v>
+      </c>
+      <c r="C207">
+        <v>87858</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
+++ b/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>Serie</t>
   </si>
@@ -641,6 +641,15 @@
   </si>
   <si>
     <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3281,6 +3290,39 @@
         <v>87858</v>
       </c>
     </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208">
+        <v>3376000</v>
+      </c>
+      <c r="C208">
+        <v>87841</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209">
+        <v>3893000</v>
+      </c>
+      <c r="C209">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210">
+        <v>4433800</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
+++ b/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Serie</t>
   </si>
@@ -650,6 +650,12 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3323,6 +3329,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211">
+        <v>5103960</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212">
+        <v>5164560</v>
+      </c>
+      <c r="C212">
+        <v>68394</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
+++ b/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Serie</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3351,6 +3354,17 @@
         <v>68394</v>
       </c>
     </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213">
+        <v>4929010</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
+++ b/5/6/7/Facilidades permanentes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Serie</t>
   </si>
@@ -659,6 +659,9 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3365,6 +3368,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214">
+        <v>4410898</v>
+      </c>
+      <c r="C214">
+        <v>52305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
